--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-02_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-02_beg.xlsx
@@ -616,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="뉴스 진행자"]   체르노보그 헌병의 신속하게 대처한 덕분에…
+    <t xml:space="preserve">[name="뉴스 진행자"]   체르노보그 헌병의 신속한 대처 덕분에…
 </t>
   </si>
   <si>
